--- a/iot_config.xlsx
+++ b/iot_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t xml:space="preserve">Description: This is the start of the configuration details:  </t>
   </si>
@@ -27,9 +27,6 @@
     <t>IoT Configuration (DRAFT V0.0.a)</t>
   </si>
   <si>
-    <t>Contents: What needs to be in here? Well, everything that the user wants as a configuration.  In addition, syem configuration that the user will not have control over.</t>
-  </si>
-  <si>
     <t>User Config</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>PARAM8</t>
+  </si>
+  <si>
+    <t>Contents: What needs to be in here? Well, everything that the user wants as a configuration.  In addition, system configuration that the user will not have control over.</t>
   </si>
 </sst>
 </file>
@@ -285,42 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -331,17 +298,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -356,6 +317,65 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,428 +656,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q46"/>
+  <dimension ref="B2:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+    </row>
+    <row r="31" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29" t="s">
+      <c r="K32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="L32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="M32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="N32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E31:I31"/>
+  <mergeCells count="13">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E33:I33"/>
     <mergeCell ref="B5:I8"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/iot_config.xlsx
+++ b/iot_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t xml:space="preserve">Description: This is the start of the configuration details:  </t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>Contents: What needs to be in here? Well, everything that the user wants as a configuration.  In addition, system configuration that the user will not have control over.</t>
+  </si>
+  <si>
+    <t>MQTT Server IP</t>
+  </si>
+  <si>
+    <t>IP to which our embedded client will connect</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>Message Queue Scoppiare</t>
+  </si>
+  <si>
+    <t>Number and size of queues for MetOceon Protocol</t>
+  </si>
+  <si>
+    <t>16 Queues</t>
+  </si>
+  <si>
+    <t>Message Queues Ethernet</t>
+  </si>
+  <si>
+    <t>Number and size of queues for ethernet driver</t>
+  </si>
+  <si>
+    <t>Message Queues Scripting</t>
+  </si>
+  <si>
+    <t>Number and size of queues for script transfer</t>
+  </si>
+  <si>
+    <t>For timeouts, the 6 bit seconds feils has a multiplier factor applied, one second = 5 seconds</t>
+  </si>
+  <si>
+    <t>Seconds Scaling Factor</t>
   </si>
 </sst>
 </file>
@@ -285,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,6 +353,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -327,6 +368,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -365,17 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,9 +697,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -673,52 +717,52 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
@@ -759,15 +803,21 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="9"/>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -777,9 +827,9 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -795,9 +845,9 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -813,9 +863,9 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1047,28 +1097,28 @@
       <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="31" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
@@ -1109,18 +1159,18 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="20" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="9" t="s">
         <v>12</v>
       </c>
@@ -1141,16 +1191,24 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="9">
+        <v>340</v>
+      </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -1159,16 +1217,24 @@
       <c r="Q34" s="9"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="9">
+        <v>2</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1500</v>
+      </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -1177,16 +1243,24 @@
       <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="J36" s="9">
+        <v>8</v>
+      </c>
+      <c r="K36" s="9">
+        <v>256</v>
+      </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -1195,15 +1269,21 @@
       <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
+      <c r="B37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="9">
+        <v>5</v>
+      </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -1411,7 +1491,9 @@
       <c r="Q48" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:I37"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="B5:I8"/>
@@ -1425,6 +1507,7 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
